--- a/def.xlsx
+++ b/def.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sbis\cropio\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06028F34-7432-40C0-82AD-3089BCBFDC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228"/>
+    <workbookView xWindow="51720" yWindow="16170" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>Заправочная ведомость</t>
   </si>
@@ -168,12 +169,6 @@
     <t>ПУТЕВОЙ ЛИСТ №</t>
   </si>
   <si>
-    <t>от</t>
-  </si>
-  <si>
-    <t>2022 года</t>
-  </si>
-  <si>
     <t>Смена№</t>
   </si>
   <si>
@@ -232,7 +227,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -648,12 +643,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -677,45 +711,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1030,28 +1025,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.68359375" customWidth="1"/>
+    <col min="2" max="2" width="15.3125" customWidth="1"/>
+    <col min="3" max="3" width="16.3125" customWidth="1"/>
+    <col min="4" max="4" width="12.7890625" customWidth="1"/>
+    <col min="5" max="5" width="14.1015625" customWidth="1"/>
+    <col min="6" max="6" width="14.3125" customWidth="1"/>
+    <col min="7" max="7" width="10.20703125" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.89453125" customWidth="1"/>
+    <col min="10" max="10" width="9.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>40</v>
       </c>
@@ -1062,89 +1057,85 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+        <v>44</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
       <c r="F3" s="35"/>
-      <c r="G3" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="45"/>
+      <c r="G3" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="58"/>
       <c r="I3" s="34"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="44"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
@@ -1158,28 +1149,28 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+    <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46" t="s">
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-    </row>
-    <row r="9" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+    </row>
+    <row r="9" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="36"/>
       <c r="B9" s="24" t="s">
         <v>3</v>
       </c>
@@ -1208,7 +1199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="25" t="s">
         <v>6</v>
       </c>
@@ -1222,7 +1213,7 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
     </row>
-    <row r="11" spans="1:10" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -1234,7 +1225,7 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
     </row>
-    <row r="12" spans="1:10" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="25" t="s">
         <v>7</v>
       </c>
@@ -1248,7 +1239,7 @@
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
     </row>
-    <row r="13" spans="1:10" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="9.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="26" t="s">
         <v>8</v>
       </c>
@@ -1262,7 +1253,7 @@
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="28" t="s">
         <v>9</v>
       </c>
@@ -1276,38 +1267,38 @@
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+    <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46" t="s">
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="46"/>
-    </row>
-    <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="24" t="s">
         <v>15</v>
       </c>
@@ -1320,7 +1311,7 @@
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
     </row>
-    <row r="17" spans="1:10" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -1332,7 +1323,7 @@
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
     </row>
-    <row r="18" spans="1:10" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -1344,7 +1335,7 @@
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
     </row>
-    <row r="19" spans="1:10" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -1356,7 +1347,7 @@
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
     </row>
-    <row r="20" spans="1:10" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -1368,7 +1359,7 @@
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
     </row>
-    <row r="21" spans="1:10" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -1380,7 +1371,7 @@
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
     </row>
-    <row r="22" spans="1:10" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -1392,7 +1383,7 @@
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
     </row>
-    <row r="23" spans="1:10" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="7.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1404,7 +1395,7 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1416,7 +1407,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="9" t="s">
         <v>17</v>
       </c>
@@ -1438,7 +1429,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1450,7 +1441,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1462,55 +1453,55 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="53" t="s">
+    <row r="28" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="36" t="s">
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="37"/>
-    </row>
-    <row r="29" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="51" t="s">
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="45"/>
+    </row>
+    <row r="29" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="52"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="18"/>
       <c r="D29" s="19"/>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="30" spans="1:10" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="52"/>
+    </row>
+    <row r="30" spans="1:10" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="41"/>
-    </row>
-    <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="54"/>
+    </row>
+    <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="5" t="s">
         <v>36</v>
       </c>
@@ -1524,7 +1515,7 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="18"/>
@@ -1536,7 +1527,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="18"/>
@@ -1548,43 +1539,43 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="54" t="s">
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="47" t="s">
+      <c r="D34" s="49"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="57"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="47" t="s">
+      <c r="G34" s="49"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="J34" s="48"/>
-    </row>
-    <row r="35" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="50"/>
-    </row>
-    <row r="36" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="56"/>
-      <c r="B36" s="56"/>
+      <c r="J34" s="38"/>
+    </row>
+    <row r="35" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="47"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40"/>
+    </row>
+    <row r="36" spans="1:10" ht="23.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="48"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="2" t="s">
         <v>30</v>
       </c>
@@ -1610,7 +1601,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -1622,7 +1613,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -1634,7 +1625,7 @@
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -1646,7 +1637,7 @@
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -1658,7 +1649,7 @@
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1670,7 +1661,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -1682,7 +1673,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -1694,7 +1685,7 @@
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -1706,7 +1697,7 @@
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -1718,7 +1709,7 @@
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1730,7 +1721,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -1742,7 +1733,7 @@
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -1754,7 +1745,7 @@
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -1766,7 +1757,7 @@
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -1778,7 +1769,7 @@
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
     </row>
-    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1790,7 +1781,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -1802,7 +1793,7 @@
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -1814,7 +1805,7 @@
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -1826,7 +1817,7 @@
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -1838,7 +1829,7 @@
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
     </row>
-    <row r="56" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1850,7 +1841,7 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -1862,7 +1853,7 @@
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -1874,23 +1865,23 @@
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
       <c r="D59" s="29"/>
       <c r="E59" s="30"/>
       <c r="F59" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -1902,23 +1893,23 @@
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B61" s="32"/>
       <c r="C61" s="32"/>
       <c r="D61" s="14"/>
       <c r="E61" s="33"/>
       <c r="F61" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1928,7 +1919,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1938,7 +1929,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1948,7 +1939,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1958,7 +1949,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1968,7 +1959,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1978,7 +1969,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1990,6 +1981,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="E29:J30"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="I15:J15"/>
@@ -2006,17 +2008,6 @@
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J30"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
